--- a/public/files/example.xlsx
+++ b/public/files/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cod(e)ing\dicoding challange\sentimen review\website\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X555\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0811F-8404-412E-8A16-5F47532F93BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE2D4E6-DBAA-4366-B8B5-CC927AD6332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>tanggal</t>
   </si>
@@ -178,66 +178,6 @@
     <t>Asyik utk tempat nongkrong</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Keterangan: Pastikan kolom </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TANGGAL </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">menggunakan format </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Contoh: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2022-07-01</t>
-    </r>
-  </si>
-  <si>
     <t>Tempat makan yang nyaman,asik untuk kumpul bareng temen, makanan juga enak, ada live music juga bagus untuk dimalam hari</t>
   </si>
   <si>
@@ -329,9 +269,6 @@
   </si>
   <si>
     <t>Tempat nya oke sih, semi outdoor tp ada juga ruangan khusus AC. Coffeshop sama bar moctail berbeda tempat. Makanan rasanya lumayan laah.. minuman nya juga bervariasi.  Ada live music, tp out loud jd ga nyaman untuk ngobrol. Order makanan juga harus teriak2 kalau mau chill yang tenang kayanya mending sore aja kesini. …</t>
-  </si>
-  <si>
-    <t>Keterangan: Nama review opsional bisa tidak perlu ditulis</t>
   </si>
   <si>
     <t>nama reviewer (opsional)</t>
@@ -344,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,14 +311,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -392,7 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +572,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,9 +595,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -678,12 +605,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="F2" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -780,7 +705,7 @@
         <v>45600</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
@@ -790,7 +715,7 @@
         <v>45600</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
@@ -810,7 +735,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
@@ -840,7 +765,7 @@
         <v>45600</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="3"/>
@@ -900,7 +825,7 @@
         <v>45601</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3"/>
@@ -910,7 +835,7 @@
         <v>45601</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="3"/>
@@ -960,7 +885,7 @@
         <v>45601</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
@@ -970,7 +895,7 @@
         <v>45601</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
@@ -1000,7 +925,7 @@
         <v>45602</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
@@ -1030,7 +955,7 @@
         <v>45602</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="3"/>
@@ -1060,7 +985,7 @@
         <v>45602</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
@@ -1080,7 +1005,7 @@
         <v>45603</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
@@ -1090,7 +1015,7 @@
         <v>45603</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
@@ -1160,7 +1085,7 @@
         <v>45603</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="3"/>
@@ -1190,7 +1115,7 @@
         <v>45604</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="3"/>
@@ -1200,7 +1125,7 @@
         <v>45604</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>
@@ -1220,7 +1145,7 @@
         <v>45604</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="3"/>
@@ -1240,7 +1165,7 @@
         <v>45604</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="3"/>
@@ -1280,7 +1205,7 @@
         <v>45605</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="3"/>
@@ -1290,7 +1215,7 @@
         <v>45605</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="3"/>
@@ -1300,7 +1225,7 @@
         <v>45605</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="3"/>
@@ -1310,7 +1235,7 @@
         <v>45605</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="3"/>
@@ -1330,7 +1255,7 @@
         <v>45605</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="3"/>
@@ -1340,7 +1265,7 @@
         <v>45605</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="3"/>
@@ -1350,7 +1275,7 @@
         <v>45605</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="3"/>
@@ -1370,7 +1295,7 @@
         <v>45606</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="3"/>
@@ -1380,7 +1305,7 @@
         <v>45606</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="3"/>
@@ -1390,7 +1315,7 @@
         <v>45606</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="3"/>
@@ -1420,7 +1345,7 @@
         <v>45606</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="3"/>
@@ -1430,7 +1355,7 @@
         <v>45606</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="3"/>
@@ -1440,7 +1365,7 @@
         <v>45606</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
